--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -76,51 +76,45 @@
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
+    <t>support</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -130,21 +124,24 @@
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
@@ -157,22 +154,19 @@
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>consumer</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -536,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -655,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +723,13 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3624161073825503</v>
+        <v>0.3959731543624161</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.9347826086956522</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3466666666666667</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3449612403100775</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.851063829787234</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3121693121693122</v>
+        <v>0.2751322751322751</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1825396825396825</v>
+        <v>0.1626984126984127</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09919571045576407</v>
+        <v>0.09651474530831099</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8203125</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1049,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1073,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1081,13 +1075,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1099,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1107,13 +1101,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1125,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1133,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1151,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1159,13 +1153,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.746031746031746</v>
+        <v>0.73125</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1177,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1185,13 +1179,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7358490566037735</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L17">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1203,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1211,13 +1205,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1229,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1237,13 +1231,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7125</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1255,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1263,13 +1257,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6595744680851063</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L20">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="M20">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1281,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1289,13 +1283,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1307,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1315,13 +1309,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6083550913838121</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L22">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="M22">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1333,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1341,13 +1335,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1359,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1367,13 +1361,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5970588235294118</v>
+        <v>0.54</v>
       </c>
       <c r="L24">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1385,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>137</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1393,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1411,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1419,13 +1413,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5288135593220339</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L26">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1437,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>139</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1445,13 +1439,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5280898876404494</v>
+        <v>0.4435146443514644</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1463,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1471,13 +1465,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5062761506276151</v>
+        <v>0.4375</v>
       </c>
       <c r="L28">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1489,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1497,13 +1491,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1515,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1523,13 +1517,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4383561643835616</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1541,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1549,13 +1543,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.3974358974358974</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1567,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>47</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1575,13 +1569,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.3571428571428572</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1593,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1601,13 +1595,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.09090909090909091</v>
+        <v>0.06263982102908278</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1619,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>380</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1627,13 +1621,13 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.0889423076923077</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1645,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>379</v>
+        <v>860</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1653,13 +1647,13 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.0738255033557047</v>
+        <v>0.02998846597462514</v>
       </c>
       <c r="L35">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1671,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1679,25 +1673,25 @@
         <v>51</v>
       </c>
       <c r="K36">
-        <v>0.04661487236403995</v>
+        <v>0.02568893040635217</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>859</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1705,77 +1699,25 @@
         <v>52</v>
       </c>
       <c r="K37">
-        <v>0.04160246533127889</v>
+        <v>0.01225411157691067</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38">
-        <v>0.02899906454630496</v>
-      </c>
-      <c r="L38">
-        <v>62</v>
-      </c>
-      <c r="M38">
-        <v>67</v>
-      </c>
-      <c r="N38">
-        <v>0.93</v>
-      </c>
-      <c r="O38">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K39">
-        <v>0.01289906481780071</v>
-      </c>
-      <c r="L39">
-        <v>40</v>
-      </c>
-      <c r="M39">
-        <v>46</v>
-      </c>
-      <c r="N39">
-        <v>0.87</v>
-      </c>
-      <c r="O39">
-        <v>0.13</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>3061</v>
+        <v>3063</v>
       </c>
     </row>
   </sheetData>
